--- a/config_12.15/sign_in_config_server_cpl.xlsx
+++ b/config_12.15/sign_in_config_server_cpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1008,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1033,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -1060,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1083,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -1110,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1133,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1495,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1731,10 +1739,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11">
-        <v>15000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="11">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1762,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="11">
-        <v>25000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1773,10 +1781,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" s="11">
-        <v>30000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1790,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="11">
-        <v>35000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="11">
-        <v>50000</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
